--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,115 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>010551</t>
+  </si>
+  <si>
+    <t>001173</t>
+  </si>
+  <si>
+    <t>007811</t>
+  </si>
+  <si>
+    <t>007812</t>
+  </si>
+  <si>
     <t>005146</t>
   </si>
   <si>
-    <t>010551</t>
-  </si>
-  <si>
-    <t>001173</t>
-  </si>
-  <si>
     <t>001174</t>
   </si>
   <si>
-    <t>007811</t>
-  </si>
-  <si>
-    <t>007812</t>
+    <t>淳厚欣颐一年持有期混合</t>
+  </si>
+  <si>
+    <t>中欧瑾和灵活配置混合 - A</t>
+  </si>
+  <si>
+    <t>淳厚信泽灵活配置混合A</t>
+  </si>
+  <si>
+    <t>淳厚信泽灵活配置混合C</t>
   </si>
   <si>
     <t>兴银丰润灵活配置混合</t>
   </si>
   <si>
-    <t>淳厚欣颐一年持有期混合</t>
-  </si>
-  <si>
-    <t>中欧瑾和灵活配置混合 - A</t>
-  </si>
-  <si>
     <t>中欧瑾和灵活配置混合 - C</t>
   </si>
   <si>
-    <t>淳厚信泽灵活配置混合A</t>
-  </si>
-  <si>
-    <t>淳厚信泽灵活配置混合C</t>
+    <t>5.74</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>1.66</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>66.79</t>
+  </si>
+  <si>
+    <t>66.40</t>
+  </si>
+  <si>
+    <t>71.40</t>
   </si>
   <si>
     <t>95.43</t>
   </si>
   <si>
-    <t>66.79</t>
-  </si>
-  <si>
-    <t>66.40</t>
-  </si>
-  <si>
-    <t>71.40</t>
+    <t>4.87</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>5.11</t>
   </si>
   <si>
     <t>2.95</t>
   </si>
   <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>5.11</t>
+    <t>0.2795</t>
+  </si>
+  <si>
+    <t>0.1036</t>
+  </si>
+  <si>
+    <t>0.0848</t>
+  </si>
+  <si>
+    <t>0.0230</t>
+  </si>
+  <si>
+    <t>0.0021</t>
+  </si>
+  <si>
+    <t>0.0009</t>
   </si>
 </sst>
 </file>
@@ -446,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +510,167 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2225,4 +2226,2566 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1514</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5872</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7425</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2293</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0363</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6765</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5285</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4432</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4324</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>47.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>40.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011276</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4788,4 +4789,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4797,7 +4798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4808,17 +4809,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4828,14 +4849,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.9</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>104.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4844,14 +4887,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.69</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4860,13 +4925,2603 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3809</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>66.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8301</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5833</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5712</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5529</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2326</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010398</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中加科享混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.64</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>35.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>76.84</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7436,7 +7437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7447,17 +7448,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7467,14 +7488,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>68</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.08</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7483,14 +7526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.9</v>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7499,14 +7564,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.69</v>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7515,13 +7602,1481 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5166</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1787</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8673</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7631</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6629</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8975,7 +8976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8986,17 +8987,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9006,14 +9027,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.55</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9022,14 +9065,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>68</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.08</v>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9038,14 +9103,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>29.9</v>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9054,14 +9141,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.69</v>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9070,13 +9179,1189 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002514</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002515</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>淳厚欣颐一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2795</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001173</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>68</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.43</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.69</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001174</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧瑾和灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>66.40</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -801,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>53.16</t>
+          <t>39.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.6580</t>
+          <t>2.4704</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470006</t>
+          <t>005453</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医药保健混合A</t>
+          <t>前海开源医疗健康灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>71.13</t>
+          <t>23.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1908</t>
+          <t>1.4019</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -867,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>005454</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>前海开源医疗健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>55.26</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.43</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5031</t>
+          <t>0.7302</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -905,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004075</t>
+          <t>000913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德医药创新股票</t>
+          <t>农银医疗保健主题股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35.17</t>
+          <t>21.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2063</t>
+          <t>0.5699</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -943,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010599</t>
+          <t>008293</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合A</t>
+          <t>农银汇理创新医疗混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31.36</t>
+          <t>9.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.38</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9063</t>
+          <t>0.2580</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -981,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>011601</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>前海开源公共卫生主题精选股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.10</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.9005</t>
+          <t>0.1323</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1019,32 +867,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>163001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.37</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4592</t>
+          <t>0.1140</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1057,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>012358</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>74.00</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3454</t>
+          <t>0.1042</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1095,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002581</t>
+          <t>005409</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合A</t>
+          <t>华泰柏瑞战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2902</t>
+          <t>0.0945</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1133,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>011748</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>华泰柏瑞景气成长混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35.14</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2901</t>
+          <t>0.0838</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1171,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011826</t>
+          <t>011288</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富健康生活一年持有期混合A</t>
+          <t>上银医疗健康混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>54.25</t>
+          <t>88.36</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2787</t>
+          <t>0.0608</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1209,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>011602</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>前海开源公共卫生主题精选股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.38</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2111</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1247,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002582</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合C</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>37.26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1866</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1285,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1689</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1323,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>002515</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>招商丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.36</t>
+          <t>37.26</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1525</t>
+          <t>0.0307</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1361,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002515</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合C</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>35.14</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1486</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1399,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>540007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>汇丰晋信中小盘股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>68.08</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1425</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1437,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003032</t>
+          <t>161038</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平安医疗健康灵活配置混合</t>
+          <t>富国新兴成长量化精选混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.03</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1121</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1475,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011827</t>
+          <t>010032</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富健康生活一年持有期混合C</t>
+          <t>华泰柏瑞战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>54.25</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0713</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1513,32 +1361,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>011766</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>兴银高端制造混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>94.04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0692</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1551,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>011289</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>上银医疗健康混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>50.16</t>
+          <t>88.36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0678</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1589,32 +1437,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.59</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0606</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1627,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>012359</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>68.08</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1665,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011259</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.38</t>
+          <t>79.15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1703,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>011749</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>华泰柏瑞景气成长混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>92.28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0368</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1741,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>98.14</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.0017</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1779,36 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001537</t>
+          <t>005537</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中加改革红利灵活配置混合</t>
+          <t>中航新起航灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1817,36 +1665,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010398</t>
+          <t>013154</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中加科享混合A</t>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1855,32 +1703,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006818</t>
+          <t>015121</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票A</t>
+          <t>汇添富医疗服务灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>80.22</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1893,36 +1741,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>005538</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>中航新起航灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1931,33 +1779,31 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>015122</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>汇添富医疗服务灵活配置混合D</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -1969,262 +1815,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>006819</t>
+          <t>014171</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>安信盈利驱动股票C</t>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>80.22</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010399</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中加科享混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>26.37</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>87.59</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007244</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>安信核心竞争力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>50.16</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>89.03</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>960015</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇添富医药保健混合O</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +1856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2259,7 +1877,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2289,36 +1907,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006113</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富创新医药主题混合</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108.15</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6879</t>
+          <t>2.5031</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2327,36 +1945,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>015122</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>汇添富医疗服务灵活配置混合D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.24</t>
+          <t>38.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>77.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1514</t>
+          <t>2.5031</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2365,36 +1983,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>519018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>汇添富均衡增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47.04</t>
+          <t>39.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.38</t>
+          <t>93.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5872</t>
+          <t>2.0080</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2403,36 +2021,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>470006</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富医药保健混合A</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>36.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.66</t>
+          <t>72.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.2709</t>
+          <t>1.5316</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2441,32 +2059,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519778</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德经济新动力混合</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.21</t>
+          <t>36.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>90.49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.2441</t>
+          <t>1.5166</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2479,36 +2097,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009664</t>
+          <t>005453</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合A</t>
+          <t>前海开源医疗健康灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56.39</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.7425</t>
+          <t>1.3947</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2527,26 +2145,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.45</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.6278</t>
+          <t>1.2184</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2555,36 +2173,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008955</t>
+          <t>012155</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德创新领航混合</t>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40.71</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>76.63</t>
+          <t>71.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.4574</t>
+          <t>1.1787</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2593,32 +2211,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>011271</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>汇添富价值成长均衡投资混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43.21</t>
+          <t>24.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.3611</t>
+          <t>0.8673</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2631,32 +2249,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004075</t>
+          <t>010387</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>交银施罗德医药创新股票</t>
+          <t>易方达医药生物股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.87</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.63</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2375</t>
+          <t>0.7631</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2669,32 +2287,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>750001</t>
+          <t>005454</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>安信灵活配置混合</t>
+          <t>前海开源医疗健康灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>42.39</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>62.19</t>
+          <t>89.12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.2293</t>
+          <t>0.7254</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2707,36 +2325,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>590001</t>
+          <t>000913</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮核心优选混合</t>
+          <t>农银医疗保健主题股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.0363</t>
+          <t>0.6629</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -2745,36 +2363,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009736</t>
+          <t>470008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合A</t>
+          <t>汇添富策略回报混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>35.28</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>94.01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.7444</t>
+          <t>0.6260</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2783,36 +2401,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011275</t>
+          <t>008293</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
+          <t>农银汇理创新医疗混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>34.87</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67.99</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.6765</t>
+          <t>0.2996</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2821,36 +2439,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519727</t>
+          <t>001766</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>交银成长30混合</t>
+          <t>上投摩根医疗健康股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.48</t>
+          <t>10.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.67</t>
+          <t>80.54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.5285</t>
+          <t>0.2805</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -2859,36 +2477,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000780</t>
+          <t>009468</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华医疗保健股票</t>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>80.32</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.5092</t>
+          <t>0.2249</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2897,36 +2515,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>399011</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中海医疗保健主题股票</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>80.31</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.4926</t>
+          <t>0.1948</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2935,36 +2553,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>001898</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>易方达大健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.4432</t>
+          <t>0.1858</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2973,36 +2591,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>590005</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中邮核心主题混合</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.4324</t>
+          <t>0.1620</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -3011,36 +2629,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009737</t>
+          <t>012045</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富稳健收益混合C</t>
+          <t>大成医药健康股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3163</t>
+          <t>0.1386</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3049,36 +2667,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>011601</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>前海开源公共卫生主题精选股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2096</t>
+          <t>0.1296</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -3087,36 +2705,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001726</t>
+          <t>011288</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇添富新兴消费股票</t>
+          <t>上银医疗健康混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2028</t>
+          <t>0.0707</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3125,36 +2743,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009665</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇添富医疗积极成长一年持有期混合C</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.41</t>
+          <t>74.07</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.1931</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3163,36 +2781,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005587</t>
+          <t>011602</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>安信比较优势灵活配置混合</t>
+          <t>前海开源公共卫生主题精选股票C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1850</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -3201,36 +2819,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002581</t>
+          <t>009469</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合A</t>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>47.94</t>
+          <t>85.57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1672</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -3239,36 +2857,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>40.13</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1439</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3277,36 +2895,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>002863</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>金信深圳成长灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>82.18</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1233</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3315,36 +2933,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002582</t>
+          <t>013441</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>招商丰凯灵活配置混合C</t>
+          <t>西藏东财创新医疗六个月定开混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>47.94</t>
+          <t>81.46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0901</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -3353,36 +2971,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>003032</t>
+          <t>012156</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平安医疗健康灵活配置混合</t>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.40</t>
+          <t>71.54</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3391,36 +3009,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009415</t>
+          <t>217021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中邮瑞享两年定期开放混合A</t>
+          <t>招商优势企业混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>21.91</t>
+          <t>69.72</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -3429,36 +3047,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011259</t>
+          <t>011766</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
+          <t>兴银高端制造混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>76.74</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3467,36 +3085,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002515</t>
+          <t>012046</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合C</t>
+          <t>大成医药健康股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>40.13</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0622</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -3505,36 +3123,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>011272</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>汇添富价值成长均衡投资混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -3543,36 +3161,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>010054</t>
+          <t>011289</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>万家健康产业混合A</t>
+          <t>上银医疗健康混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3581,36 +3199,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005381</t>
+          <t>008037</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>泰康睿利量化多策略混合A</t>
+          <t>兴银先锋成长混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>89.38</t>
+          <t>79.32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3619,36 +3237,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>97.05</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -3657,36 +3275,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010398</t>
+          <t>008038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中加科享混合A</t>
+          <t>兴银先锋成长混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>79.32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3695,36 +3313,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -3733,1060 +3351,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>003513</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中邮消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>217021</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>招商优势企业混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>72.06</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0212</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>501039</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>29.65</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006818</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0152</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>011276</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>67.99</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>78.85</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>501040</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>汇添富睿丰混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>29.65</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006819</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>安信盈利驱动股票C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>65.37</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.43</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>004806</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>长信先机两年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>76.42</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>010399</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>中加科享混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>23.24</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>168301</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>东海祥龙灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>47.82</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>65.37</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>162211</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>泰达宏利品质生活混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>79.93</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009416</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>中邮瑞享两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>21.91</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>91.57</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>78.85</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>960015</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>汇添富医药保健混合O</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7438,7 +6032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7459,7 +6053,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7489,36 +6083,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001417</t>
+          <t>006113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合</t>
+          <t>汇添富创新医药主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>108.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.5031</t>
+          <t>3.6879</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7527,36 +6121,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015122</t>
+          <t>001417</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合D</t>
+          <t>汇添富医疗服务灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.45</t>
+          <t>49.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.97</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.5031</t>
+          <t>3.1514</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7565,36 +6159,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519018</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富均衡增长混合</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.45</t>
+          <t>47.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>77.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0080</t>
+          <t>2.5872</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7603,36 +6197,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010481</t>
+          <t>470006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富高质量成长精选2年持有期混合</t>
+          <t>汇添富医药保健混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.73</t>
+          <t>63.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>72.35</t>
+          <t>90.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5316</t>
+          <t>2.2709</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -7641,32 +6235,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110023</t>
+          <t>519778</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达医疗保健行业混合</t>
+          <t>交银施罗德经济新动力混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.81</t>
+          <t>59.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.5166</t>
+          <t>2.2441</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -7679,36 +6273,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005453</t>
+          <t>009664</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>56.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3947</t>
+          <t>1.7425</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -7727,26 +6321,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.34</t>
+          <t>27.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>76.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2184</t>
+          <t>1.6278</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -7755,36 +6349,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012155</t>
+          <t>008955</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+          <t>交银施罗德创新领航混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.01</t>
+          <t>40.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.54</t>
+          <t>76.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1787</t>
+          <t>1.4574</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -7793,32 +6387,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011271</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富价值成长均衡投资混合A</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>43.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>90.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8673</t>
+          <t>1.3611</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -7831,32 +6425,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010387</t>
+          <t>004075</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达医药生物股票A</t>
+          <t>交银施罗德医药创新股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>35.87</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>83.49</t>
+          <t>91.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7631</t>
+          <t>1.2375</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -7869,32 +6463,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005454</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12.66</t>
+          <t>42.39</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>62.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.7254</t>
+          <t>1.2293</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -7907,36 +6501,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>590001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>中邮核心优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6629</t>
+          <t>1.0363</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -7945,36 +6539,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>470008</t>
+          <t>009736</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富策略回报混合</t>
+          <t>汇添富稳健收益混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>35.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6260</t>
+          <t>0.7444</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -7983,36 +6577,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008293</t>
+          <t>011275</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>农银汇理创新医疗混合</t>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>34.87</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>67.99</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.2996</t>
+          <t>0.6765</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -8021,36 +6615,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001766</t>
+          <t>519727</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>上投摩根医疗健康股票</t>
+          <t>交银成长30混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>14.48</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>80.54</t>
+          <t>77.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.2805</t>
+          <t>0.5285</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -8059,36 +6653,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009468</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合A</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>80.32</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2249</t>
+          <t>0.5092</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -8097,36 +6691,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>399011</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>中海医疗保健主题股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>80.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1948</t>
+          <t>0.4926</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -8135,36 +6729,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001898</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达大健康主题灵活配置混合</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.42</t>
+          <t>92.66</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1858</t>
+          <t>0.4432</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -8173,36 +6767,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>590005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>中邮核心主题混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.49</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1620</t>
+          <t>0.4324</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -8211,36 +6805,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>012045</t>
+          <t>009737</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大成医药健康股票A</t>
+          <t>汇添富稳健收益混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1386</t>
+          <t>0.3163</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -8249,36 +6843,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011601</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票A</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>85.03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1296</t>
+          <t>0.2096</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -8287,36 +6881,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011288</t>
+          <t>001726</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>上银医疗健康混合A</t>
+          <t>汇添富新兴消费股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>93.52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0707</t>
+          <t>0.2028</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -8325,36 +6919,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>011259</t>
+          <t>009665</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇添富高质量成长30一年持有期混合C</t>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>74.07</t>
+          <t>74.41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0539</t>
+          <t>0.1931</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -8363,36 +6957,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>011602</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.1850</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -8401,36 +6995,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009469</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时健康成长主题双周定期可赎回混合C</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>85.57</t>
+          <t>47.94</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.1672</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -8439,36 +7033,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>40.13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.1439</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -8477,36 +7071,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>82.18</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.1233</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -8515,36 +7109,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>013441</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>西藏东财创新医疗六个月定开混合</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>81.46</t>
+          <t>47.94</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0901</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -8553,36 +7147,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>012156</t>
+          <t>003032</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+          <t>平安医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>71.54</t>
+          <t>86.40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0822</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -8591,36 +7185,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>217021</t>
+          <t>009415</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>招商优势企业混合</t>
+          <t>中邮瑞享两年定期开放混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>69.72</t>
+          <t>21.91</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -8629,36 +7223,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>011766</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>兴银高端制造混合C</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>76.74</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -8667,36 +7261,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>012046</t>
+          <t>002515</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大成医药健康股票C</t>
+          <t>招商丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>40.13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0121</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -8705,36 +7299,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011272</t>
+          <t>011765</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>汇添富价值成长均衡投资混合C</t>
+          <t>兴银高端制造混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -8743,36 +7337,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>011289</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>上银医疗健康混合C</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>81.70</t>
+          <t>87.27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0463</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -8781,36 +7375,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>005381</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>泰康睿利量化多策略混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>79.32</t>
+          <t>89.38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -8819,36 +7413,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>97.05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0338</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -8857,36 +7451,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>010398</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>中加科享混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>79.32</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -8895,36 +7489,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>162212</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>泰达宏利红利先锋混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0253</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -8933,36 +7527,1060 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011276</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>交银施罗德成长动力一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004806</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长信先机两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>005146</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8976,7 +8594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8997,7 +8615,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -9037,26 +8655,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.91</t>
+          <t>53.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4704</t>
+          <t>2.6580</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9065,36 +8683,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005453</t>
+          <t>470006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
+          <t>汇添富医药保健混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.02</t>
+          <t>71.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4019</t>
+          <t>2.1908</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9103,36 +8721,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005454</t>
+          <t>010481</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
+          <t>汇添富高质量成长精选2年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>55.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>82.43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7302</t>
+          <t>1.5031</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9141,36 +8759,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000913</t>
+          <t>004075</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>农银医疗保健主题股票</t>
+          <t>交银施罗德医药创新股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>35.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5699</t>
+          <t>1.2063</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9179,36 +8797,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008293</t>
+          <t>010599</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>农银汇理创新医疗混合</t>
+          <t>汇添富高质量成长30一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>31.36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>80.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2580</t>
+          <t>0.9063</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -9217,36 +8835,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011601</t>
+          <t>750001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票A</t>
+          <t>安信灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>74.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1323</t>
+          <t>0.9005</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -9255,32 +8873,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163001</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>86.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1140</t>
+          <t>0.4592</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -9293,36 +8911,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012358</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>74.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1042</t>
+          <t>0.3454</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -9331,36 +8949,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>002581</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>招商丰凯灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0945</t>
+          <t>0.2902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -9369,36 +8987,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011748</t>
+          <t>002514</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气成长混合A</t>
+          <t>招商丰益灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0838</t>
+          <t>0.2901</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -9407,36 +9025,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011288</t>
+          <t>011826</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上银医疗健康混合A</t>
+          <t>汇添富健康生活一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>54.25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0608</t>
+          <t>0.2787</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -9445,36 +9063,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011602</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源公共卫生主题精选股票C</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>90.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>0.2111</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -9483,36 +9101,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002514</t>
+          <t>002582</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合A</t>
+          <t>招商丰凯灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>37.26</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.1866</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -9521,36 +9139,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002863</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金信深圳成长灵活配置混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.1689</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -9559,36 +9177,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002515</t>
+          <t>005587</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商丰益灵活配置混合C</t>
+          <t>安信比较优势灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>37.26</t>
+          <t>77.36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.1525</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -9597,36 +9215,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011765</t>
+          <t>002515</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银高端制造混合A</t>
+          <t>招商丰益灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>35.14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.1486</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -9635,36 +9253,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>540007</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘股票</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -9673,36 +9291,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>003032</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）</t>
+          <t>平安医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.1121</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -9711,36 +9329,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010032</t>
+          <t>011827</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
+          <t>汇添富健康生活一年持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>54.25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0713</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -9749,32 +9367,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011766</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>兴银高端制造混合C</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0692</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -9787,36 +9405,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011289</t>
+          <t>007243</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上银医疗健康混合C</t>
+          <t>安信核心竞争力灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>50.16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -9825,32 +9443,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008037</t>
+          <t>010054</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合A</t>
+          <t>万家健康产业混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>87.59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0606</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -9863,36 +9481,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>012359</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>68.08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0403</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -9901,36 +9519,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>011259</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>汇添富高质量成长30一年持有期混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>80.38</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -9939,36 +9557,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011749</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华泰柏瑞景气成长混合C</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>92.28</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0368</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -9977,36 +9595,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -10015,36 +9633,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005537</t>
+          <t>001537</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中航新起航灵活配置混合A</t>
+          <t>中加改革红利灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -10053,36 +9671,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>013154</t>
+          <t>010398</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+          <t>中加科享混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -10091,32 +9709,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>015121</t>
+          <t>006818</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合C</t>
+          <t>安信盈利驱动股票A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>80.22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -10129,36 +9747,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005538</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中航新起航灵活配置混合C</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>87.96</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -10167,31 +9785,33 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>015122</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>汇添富医疗服务灵活配置混合D</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>87.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -10203,34 +9823,262 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>014171</t>
+          <t>006819</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）C</t>
+          <t>安信盈利驱动股票C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>80.22</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010399</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中加科享混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -10244,128 +10092,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.3</v>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.55</v>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.08</v>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.9</v>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.69</v>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.49</v>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>6.3</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>19.55</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>31.08</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D6" t="n">
-        <v>12.69</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -583,6 +600,706 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +2567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3388,7 +4105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6026,7 +6743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8588,7 +9305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10086,7 +10803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
+++ b/数据整理/stocks/A股/创业板/300171-东富龙.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.53</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>19.55</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>31.08</v>
+        <v>19.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>12.69</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1299,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2567,7 +2830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4105,7 +4368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6743,7 +7006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9305,7 +9568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10803,7 +11066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
